--- a/thermalData.xlsx
+++ b/thermalData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liqun\PycharmProjects\pdf2execl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7A783A-7880-4F1A-8A85-BD62644DBEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C98D04-5CCA-4A01-BC0E-E411AF46B191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="高过2" sheetId="2" r:id="rId1"/>
@@ -29,12 +29,24 @@
     <sheet name="低省2" sheetId="15" r:id="rId14"/>
     <sheet name="低省1" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <externalReferences>
+    <externalReference r:id="rId16"/>
+  </externalReferences>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="60">
   <si>
     <t>烟气侧</t>
   </si>
@@ -185,6 +197,37 @@
   <si>
     <t>设计压力. (Pa(g))</t>
   </si>
+  <si>
+    <t>设计压力 (Pa(g))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低省1烟侧进口流量</t>
+  </si>
+  <si>
+    <t>低省1烟侧进口压力</t>
+  </si>
+  <si>
+    <t>低省1烟侧进口温度</t>
+  </si>
+  <si>
+    <t>低省1水侧进口流量</t>
+  </si>
+  <si>
+    <t>低省1水侧进口压力</t>
+  </si>
+  <si>
+    <t>低省1水侧进口温度</t>
+  </si>
+  <si>
+    <t>低省1水侧出口温度</t>
+  </si>
+  <si>
+    <t>低省1水侧压降</t>
+  </si>
+  <si>
+    <t>低省1水侧烟侧压降</t>
+  </si>
 </sst>
 </file>
 
@@ -206,12 +249,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -226,8 +275,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -243,6 +302,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="r 低省1-"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -524,15 +596,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -561,10 +633,10 @@
       <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O2" t="s">
@@ -8401,7 +8473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -10373,7 +10445,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -10385,7 +10459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10419,7 +10493,7 @@
       <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M2" t="s">
@@ -12338,18 +12412,29 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V37" sqref="V37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -12357,7 +12442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -12397,10 +12482,10 @@
       <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P2" t="s">
@@ -12418,11 +12503,38 @@
       <c r="T2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -12486,73 +12598,151 @@
       <c r="U3">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="V3">
+        <v>49798.2</v>
+      </c>
+      <c r="X3">
+        <f>B3/3.6</f>
+        <v>654.83333333333337</v>
+      </c>
+      <c r="Y3">
+        <f>C3/1000000+0.1</f>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z3">
+        <f>E3</f>
+        <v>127.5</v>
+      </c>
+      <c r="AA3">
+        <f>L3/3600</f>
+        <v>183.10249999999999</v>
+      </c>
+      <c r="AB3">
+        <f>N3+0.1</f>
+        <v>1.36</v>
+      </c>
+      <c r="AC3">
+        <f>R3</f>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="AD3">
+        <f>Q3</f>
+        <v>98.8</v>
+      </c>
+      <c r="AE3">
+        <f>P3</f>
+        <v>0.224</v>
+      </c>
+      <c r="AF3">
+        <f>D3/1000000</f>
+        <v>2.009E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2393</v>
       </c>
-      <c r="C4">
-        <v>6000</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D4" s="2">
         <v>205</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>125.2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>82.3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>42.9</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>1.0589999999999999</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>108.6</v>
       </c>
-      <c r="J4">
-        <v>99.6</v>
-      </c>
-      <c r="K4">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="L4">
+      <c r="J4" s="2">
+        <v>99.6</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="L4" s="2">
         <v>759569</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>3.62</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>1.33</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>1.04</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>0.29399999999999998</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>94.1</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <v>28.8</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="2">
         <v>65.3</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="2">
         <v>108.2</v>
       </c>
-      <c r="U4">
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U4" s="2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="V4">
+        <v>57600.7</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X31" si="0">B4/3.6</f>
+        <v>664.72222222222217</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y31" si="1">C4/1000000+0.1</f>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z31" si="2">E4</f>
+        <v>125.2</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA31" si="3">L4/3600</f>
+        <v>210.99138888888888</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ref="AB4:AB31" si="4">N4+0.1</f>
+        <v>1.4300000000000002</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" ref="AC4:AC31" si="5">R4</f>
+        <v>28.8</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ref="AD4:AD31" si="6">Q4</f>
+        <v>94.1</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" ref="AE4:AE31" si="7">P4</f>
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ref="AF4:AF31" si="8">D4/1000000</f>
+        <v>2.05E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -12616,8 +12806,47 @@
       <c r="U5">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5">
+        <v>36311.599999999999</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>612.22222222222217</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="2"/>
+        <v>130.69999999999999</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="3"/>
+        <v>139.04444444444445</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="5"/>
+        <v>45.2</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="6"/>
+        <v>107.5</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="7"/>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="8"/>
+        <v>1.8100000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -12681,8 +12910,47 @@
       <c r="U6">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6">
+        <v>60713.4</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>695.55555555555554</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="2"/>
+        <v>127.5</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="3"/>
+        <v>213.85222222222222</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="4"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="5"/>
+        <v>27.9</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="6"/>
+        <v>95.8</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="7"/>
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="8"/>
+        <v>2.23E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -12746,8 +13014,47 @@
       <c r="U7">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7">
+        <v>60970.3</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>714.16666666666663</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="2"/>
+        <v>129.80000000000001</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="3"/>
+        <v>207.36138888888888</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="4"/>
+        <v>1.4300000000000002</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="6"/>
+        <v>98.3</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="7"/>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="8"/>
+        <v>2.3499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -12811,8 +13118,47 @@
       <c r="U8">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8">
+        <v>54718</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>654.72222222222217</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="2"/>
+        <v>122.9</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="3"/>
+        <v>211.1261111111111</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="4"/>
+        <v>1.4300000000000002</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="5"/>
+        <v>30.6</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="6"/>
+        <v>92.6</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="7"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="8"/>
+        <v>1.9900000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -12876,8 +13222,47 @@
       <c r="U9">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9">
+        <v>56675.9</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>654.72222222222217</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="2"/>
+        <v>124.4</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="3"/>
+        <v>200.51333333333332</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="4"/>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="5"/>
+        <v>27.1</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="6"/>
+        <v>94.7</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="7"/>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="8"/>
+        <v>1.9900000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -12941,8 +13326,47 @@
       <c r="U10">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10">
+        <v>56246.3</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>654.72222222222217</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="2"/>
+        <v>123.7</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="3"/>
+        <v>205.71361111111111</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="4"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="5"/>
+        <v>28.3</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="6"/>
+        <v>93.7</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="7"/>
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="8"/>
+        <v>1.9900000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -13006,8 +13430,47 @@
       <c r="U11">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <v>56639.199999999997</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>654.72222222222217</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="2"/>
+        <v>124.2</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="3"/>
+        <v>202.48972222222221</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="4"/>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="5"/>
+        <v>27.4</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="6"/>
+        <v>94.3</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="7"/>
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="8"/>
+        <v>1.9900000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -13071,8 +13534,47 @@
       <c r="U12">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <v>39465.4</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>612.22222222222217</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="2"/>
+        <v>126.3</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="3"/>
+        <v>156.5611111111111</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="4"/>
+        <v>1.29</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="5"/>
+        <v>41.1</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="6"/>
+        <v>101.3</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="7"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="8"/>
+        <v>1.7899999999999999E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -13136,8 +13638,47 @@
       <c r="U13">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <v>42816.6</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>612.22222222222217</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="2"/>
+        <v>122.7</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="3"/>
+        <v>176.45527777777778</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="4"/>
+        <v>1.34</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="5"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="6"/>
+        <v>95.8</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="7"/>
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="8"/>
+        <v>1.7699999999999999E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -13201,8 +13742,47 @@
       <c r="U14">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14">
+        <v>41395.800000000003</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>612.22222222222217</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="2"/>
+        <v>124.2</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="3"/>
+        <v>167.36166666666668</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="4"/>
+        <v>1.32</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="5"/>
+        <v>39.1</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="6"/>
+        <v>98.2</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="7"/>
+        <v>0.188</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="8"/>
+        <v>1.7799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -13266,8 +13846,47 @@
       <c r="U15">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15">
+        <v>42260.6</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>612.22222222222217</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="2"/>
+        <v>123.3</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="3"/>
+        <v>172.64861111111111</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="4"/>
+        <v>1.33</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="5"/>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="6"/>
+        <v>96.8</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="8"/>
+        <v>1.7699999999999999E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -13331,8 +13950,47 @@
       <c r="U16">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16">
+        <v>62535.4</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="0"/>
+        <v>695.55555555555554</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="3"/>
+        <v>205.41972222222222</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="4"/>
+        <v>1.3900000000000001</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="5"/>
+        <v>23.8</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="6"/>
+        <v>96.6</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="7"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="8"/>
+        <v>2.23E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -13396,8 +14054,47 @@
       <c r="U17">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17">
+        <v>62114.2</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="0"/>
+        <v>695.55555555555554</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="2"/>
+        <v>126.3</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="3"/>
+        <v>210.72305555555556</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="4"/>
+        <v>1.4200000000000002</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="6"/>
+        <v>95.5</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="7"/>
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="8"/>
+        <v>2.23E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -13461,8 +14158,47 @@
       <c r="U18">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18">
+        <v>61845.3</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="0"/>
+        <v>695.55555555555554</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="2"/>
+        <v>126.8</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="3"/>
+        <v>207.4361111111111</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="4"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="5"/>
+        <v>24.9</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="6"/>
+        <v>96.2</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="7"/>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="8"/>
+        <v>2.23E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -13526,8 +14262,47 @@
       <c r="U19">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19">
+        <v>60675.3</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="0"/>
+        <v>695.55555555555554</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="2"/>
+        <v>126.6</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="3"/>
+        <v>210.00055555555556</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="4"/>
+        <v>1.4200000000000002</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="5"/>
+        <v>26.7</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="6"/>
+        <v>95.8</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="7"/>
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="8"/>
+        <v>2.23E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -13591,8 +14366,47 @@
       <c r="U20">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20">
+        <v>28689.1</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="0"/>
+        <v>483.05555555555554</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="2"/>
+        <v>118.7</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="3"/>
+        <v>129.78222222222223</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="4"/>
+        <v>1.1800000000000002</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="5"/>
+        <v>43.9</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="6"/>
+        <v>96.7</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="7"/>
+        <v>0.115</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="8"/>
+        <v>1.15E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -13656,8 +14470,47 @@
       <c r="U21">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21">
+        <v>46570.400000000001</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="0"/>
+        <v>515.27777777777771</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="2"/>
+        <v>115.1</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="3"/>
+        <v>188.87777777777777</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="4"/>
+        <v>1.29</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="5"/>
+        <v>28.1</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="6"/>
+        <v>87.1</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="7"/>
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="8"/>
+        <v>1.26E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -13721,8 +14574,47 @@
       <c r="U22">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22">
+        <v>43848.9</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="0"/>
+        <v>510.55555555555554</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="2"/>
+        <v>112.9</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="3"/>
+        <v>196.5361111111111</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="4"/>
+        <v>1.33</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="5"/>
+        <v>31.7</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="6"/>
+        <v>85.1</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="7"/>
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="8"/>
+        <v>1.2400000000000001E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -13786,8 +14678,47 @@
       <c r="U23">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23">
+        <v>41996.4</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="0"/>
+        <v>540.27777777777771</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="2"/>
+        <v>117.8</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="3"/>
+        <v>173.76750000000001</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="4"/>
+        <v>1.28</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="5"/>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="6"/>
+        <v>91.1</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="7"/>
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="8"/>
+        <v>1.3799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -13851,8 +14782,47 @@
       <c r="U24">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24">
+        <v>23676.7</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="0"/>
+        <v>386.38888888888886</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="2"/>
+        <v>113.7</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="3"/>
+        <v>110.48527777777778</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="5"/>
+        <v>42.1</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="6"/>
+        <v>93.3</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="7"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="8"/>
+        <v>7.4999999999999993E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -13916,8 +14886,47 @@
       <c r="U25">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <v>36724.199999999997</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="0"/>
+        <v>403.61111111111109</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="2"/>
+        <v>110.1</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="3"/>
+        <v>157.19222222222223</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="4"/>
+        <v>1.1700000000000002</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="5"/>
+        <v>28.4</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="6"/>
+        <v>84.3</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="7"/>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="8"/>
+        <v>8.0000000000000007E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -13981,8 +14990,47 @@
       <c r="U26">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26">
+        <v>35482.1</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="0"/>
+        <v>401.94444444444446</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="2"/>
+        <v>108.8</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="3"/>
+        <v>160.80861111111111</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="4"/>
+        <v>1.1900000000000002</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="5"/>
+        <v>30.5</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="6"/>
+        <v>83.3</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="7"/>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="8"/>
+        <v>7.8999999999999996E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -14046,8 +15094,47 @@
       <c r="U27">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27">
+        <v>33428.300000000003</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="0"/>
+        <v>415.83333333333331</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="2"/>
+        <v>108.4</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="3"/>
+        <v>161.59583333333333</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="4"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="5"/>
+        <v>33.9</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="6"/>
+        <v>83.4</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="7"/>
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="8"/>
+        <v>8.3999999999999995E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -14111,8 +15198,47 @@
       <c r="U28">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28">
+        <v>20299.7</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="0"/>
+        <v>329.16666666666669</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="2"/>
+        <v>118.9</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="3"/>
+        <v>78.915000000000006</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="4"/>
+        <v>1.02</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="5"/>
+        <v>40.4</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="6"/>
+        <v>101.8</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="7"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="8"/>
+        <v>5.7000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -14176,8 +15302,47 @@
       <c r="U29">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V29">
+        <v>28676.3</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="0"/>
+        <v>346.11111111111109</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="2"/>
+        <v>113.6</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="3"/>
+        <v>110.57250000000001</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="4"/>
+        <v>1.07</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="5"/>
+        <v>29.1</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="6"/>
+        <v>91.1</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="7"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="8"/>
+        <v>6.0999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -14241,8 +15406,47 @@
       <c r="U30">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30">
+        <v>26896.3</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="0"/>
+        <v>343.05555555555554</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="2"/>
+        <v>114.1</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="3"/>
+        <v>104.19305555555556</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="4"/>
+        <v>1.05</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="5"/>
+        <v>30.8</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="6"/>
+        <v>92.5</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="8"/>
+        <v>6.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -14305,11 +15509,51 @@
       </c>
       <c r="U31">
         <v>0.17599999999999999</v>
+      </c>
+      <c r="V31">
+        <v>29193</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="0"/>
+        <v>357.5</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="2"/>
+        <v>114.4</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="3"/>
+        <v>110.07083333333334</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="4"/>
+        <v>1.07</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="5"/>
+        <v>28.7</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="6"/>
+        <v>92.1</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="7"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="8"/>
+        <v>6.4999999999999994E-5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24175,13 +25419,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -24189,72 +25439,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:32" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -24318,8 +25595,24 @@
       <c r="U3">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X3">
+        <f>B3/3.6</f>
+        <v>654.83333333333337</v>
+      </c>
+      <c r="Y3">
+        <f>C3/1000000+0.1</f>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="Z3">
+        <f>E3</f>
+        <v>319.39999999999998</v>
+      </c>
+      <c r="AA3">
+        <f>L3/3600</f>
+        <v>11.329444444444444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -24384,7 +25677,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -24449,7 +25742,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -24514,7 +25807,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -24579,7 +25872,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -24644,7 +25937,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -24709,7 +26002,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -24774,7 +26067,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -24839,7 +26132,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -24904,7 +26197,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -24969,7 +26262,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -25034,7 +26327,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -25099,7 +26392,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
